--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_4009.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_4009.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rahmat Shah</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,7 +661,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>02/10/2013</t>
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3560</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>04/10/2013</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3561</t>
+          <t>3561</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3632</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3633</t>
+          <t>3633</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3650</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1224,7 +1287,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1276,7 +1339,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1328,7 +1391,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1380,7 +1443,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3991</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1432,7 +1495,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3993</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1484,7 +1547,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3994</t>
+          <t>3994</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1536,7 +1599,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3996</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1588,7 +1651,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3998</t>
+          <t>3998</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1640,7 +1703,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1692,7 +1755,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1744,7 +1807,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1796,7 +1859,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1848,7 +1911,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1900,7 +1963,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1952,7 +2015,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1992,7 +2055,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -2000,7 +2062,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4046</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2052,7 +2114,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2104,7 +2166,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2156,7 +2218,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2208,7 +2270,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4129</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2260,7 +2322,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4131</t>
+          <t>4131</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2312,7 +2374,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4132</t>
+          <t>4132</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2352,7 +2414,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -2360,7 +2421,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4134</t>
+          <t>4134</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2412,7 +2473,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4136</t>
+          <t>4136</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2464,7 +2525,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2516,7 +2577,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4145</t>
+          <t>4145</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2568,7 +2629,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4147</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2620,7 +2681,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2672,7 +2733,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4160</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2724,7 +2785,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2776,7 +2837,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2828,7 +2889,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2880,7 +2941,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2932,7 +2993,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2984,7 +3045,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3036,7 +3097,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3088,7 +3149,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3140,7 +3201,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3192,7 +3253,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3244,7 +3305,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3296,7 +3357,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3348,7 +3409,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3400,7 +3461,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3452,7 +3513,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3504,7 +3565,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3556,7 +3617,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3608,7 +3669,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3660,7 +3721,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3712,7 +3773,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3764,7 +3825,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3816,7 +3877,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4323</t>
+          <t>4323</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3868,7 +3929,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3920,7 +3981,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3972,7 +4033,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4024,7 +4085,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4076,7 +4137,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4128,7 +4189,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4180,7 +4241,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4232,7 +4293,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4284,7 +4345,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4336,7 +4397,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4388,7 +4449,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4440,7 +4501,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4525</t>
+          <t>4525</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4492,7 +4553,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4528</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4544,7 +4605,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4530</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4596,7 +4657,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4648,7 +4709,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4700,7 +4761,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4752,7 +4813,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4582</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4804,7 +4865,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4585</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4856,7 +4917,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4588</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4908,7 +4969,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4671</t>
+          <t>4671</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4960,7 +5021,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4674</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5012,7 +5073,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4675</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5051,7 +5112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5073,7 +5134,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -5110,7 +5171,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5147,7 +5208,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5184,7 +5245,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3560</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5221,7 +5282,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3561</t>
+          <t>3561</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5258,7 +5319,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5295,7 +5356,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3632</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5332,7 +5393,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3633</t>
+          <t>3633</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5369,7 +5430,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3650</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5406,7 +5467,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5443,7 +5504,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5480,7 +5541,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5517,7 +5578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5554,7 +5615,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5591,7 +5652,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5628,7 +5689,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4129</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5665,7 +5726,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4131</t>
+          <t>4131</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5702,7 +5763,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5739,7 +5800,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5776,7 +5837,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5813,7 +5874,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5850,7 +5911,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5887,7 +5948,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5924,7 +5985,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5961,7 +6022,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5998,7 +6059,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6035,7 +6096,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6072,7 +6133,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6098,6 +6159,601 @@
       <c r="G28" t="inlineStr">
         <is>
           <t>0/10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>15.42%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.53%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.44%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16.50%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.02%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.62%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14.77%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>18.90%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15.81%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.35%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>34.06%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.43%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12.41%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.44%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_4009.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_4009.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6459,10 +6460,6 @@
           <t>4525</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6565,10 +6562,6 @@
           <t>4538</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6701,61 +6694,337 @@
           <t>4671</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.44%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3650</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3938</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4129</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4674</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>25.44%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4675</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_4009.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_4009.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -662,6 +660,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>02/10/2013</t>
@@ -709,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>04/10/2013</t>
@@ -2056,6 +2056,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -2415,6 +2416,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -6166,867 +6168,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>15.42%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21.53%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>31.44%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>16.50%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.02%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.05%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>39.62%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.75%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4525</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4528</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>14.77%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4530</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>18.90%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>15.81%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>24.35%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4582</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>34.06%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4585</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>38.43%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4588</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>12.41%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4671</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4674</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>25.44%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4675</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3650</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3916</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3917</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3918</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3938</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3941</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4009</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4129</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4131</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4140</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4198</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4203</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4257</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4290</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4301</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4315</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4326</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4332</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_4009.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_4009.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -660,7 +662,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>02/10/2013</t>
@@ -708,7 +709,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>04/10/2013</t>
@@ -2056,7 +2056,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -2416,7 +2415,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -6168,4 +6166,2625 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3482</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13.41%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3560</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5.66%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3632</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3633</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2.32%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3650</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8.59%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3912</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3913</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14.61%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5.60%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.96%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>11.86%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3936</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.52%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3938</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.27%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7.94%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.90%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>19.76%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.71%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.12%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>46.75%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>8.02%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.74%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4046</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.01%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>14.55%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4097</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.86%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4129</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>34.23%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.02%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4132</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4134</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.48%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2.75%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4145</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>35.57%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>8.99%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>5.63%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.76%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4189</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>12.78%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4190</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>17.58%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25.98%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>28.92%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3.92%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>14.01%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>13.33%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4259</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>6.73%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>7.87%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>42.01%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2.90%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.33%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.77%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>4.80%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>12.00%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>15.42%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.53%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>3</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>31.44%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>16.50%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>4.02%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>39.62%</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>14.77%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>18.90%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>15.81%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>3</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>24.35%</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>34.06%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>3</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>38.43%</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>12.41%</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>25.44%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3482</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3560</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3632</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3633</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3650</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3938</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4129</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>